--- a/Real Estate/CoStar Group.xlsx
+++ b/Real Estate/CoStar Group.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Real Estate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C220455-9580-BE43-AC0B-1C4B8EB5B51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9C12A-C81E-644D-AB3E-07A82306093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,49 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -835,22 +861,13 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -858,47 +875,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,20 +922,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -962,78 +936,89 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1085,7 +1070,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>CSGP</a:t>
+              <a:t>CoStar</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Group</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1419,11 +1408,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1463,7 +1452,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AA$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AA$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="26"/>
@@ -2302,6 +2291,70 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2422,13 +2475,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>85.37</v>
-    <v>54.02</v>
-    <v>0.8831</v>
-    <v>0.47</v>
-    <v>6.0229999999999997E-3</v>
-    <v>-0.47</v>
-    <v>-5.9870000000000001E-3</v>
+    <v>92.36</v>
+    <v>57.54</v>
+    <v>0.90980000000000005</v>
+    <v>-1.26</v>
+    <v>-1.4312E-2</v>
+    <v>0.04</v>
+    <v>4.6089999999999998E-4</v>
     <v>USD</v>
     <v>CoStar Group, Inc. is a provider of online real estate marketplaces, information and analytics in the United States (U.S.) and United Kingdom (U.K.). The Company provides online marketplaces for commercial real estate, apartment rentals, residential real estate, land for sale and businesses for sale. The Company manages its business geographically in two segments: North America, which includes the United States and Canada, and International, which primarily includes Europe, Asia-Pacific and Latin America. It also offers online platforms that manage workflow and marketing for residential real estate agents and brokers and provides a portal for homebuyers to view residential property listings. Its services are primarily derived from a database of building-specific information and offer customers specialized tools for accessing, analyzing and using its information. The Company's brands include CoStar, STR, Apartments.com, LoopNet, Homes.com, Homesnap, Ten-X, BizBuySell and Land.com.</v>
     <v>5653</v>
@@ -2436,25 +2489,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1331 L St NW, WASHINGTON, DC, 20005 US</v>
-    <v>78.7</v>
+    <v>88.3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.875002696092</v>
+    <v>45114.988817140627</v>
     <v>0</v>
-    <v>77.84</v>
-    <v>32070330000</v>
+    <v>86.7</v>
+    <v>35453030000</v>
     <v>COSTAR GROUP, INC.</v>
     <v>COSTAR GROUP, INC.</v>
-    <v>78.430000000000007</v>
-    <v>85.806399999999996</v>
-    <v>78.03</v>
-    <v>78.5</v>
-    <v>78.03</v>
+    <v>87.56</v>
+    <v>96.234399999999994</v>
+    <v>88.04</v>
+    <v>86.78</v>
+    <v>86.82</v>
     <v>408539200</v>
     <v>CSGP</v>
     <v>COSTAR GROUP, INC. (XNAS:CSGP)</v>
-    <v>1529697</v>
-    <v>1690208</v>
+    <v>2146548</v>
+    <v>4391349</v>
     <v>1998</v>
   </rv>
   <rv s="2">
@@ -2619,9 +2672,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3042,10 +3095,10 @@
   <dimension ref="A1:AJ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE93" sqref="AE93"/>
+      <selection pane="bottomRight" activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3137,19 +3190,19 @@
       <c r="AA1" s="8">
         <v>2022</v>
       </c>
-      <c r="AB1" s="27">
+      <c r="AB1" s="23">
         <v>2023</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2024</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2025</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2026</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3158,91 +3211,91 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9"/>
       <c r="AF2" s="9"/>
@@ -3329,37 +3382,37 @@
       <c r="AA3" s="1">
         <v>2182399000</v>
       </c>
-      <c r="AB3" s="28">
+      <c r="AB3" s="24">
         <v>2478000000</v>
       </c>
-      <c r="AC3" s="28">
+      <c r="AC3" s="24">
         <v>2871000000</v>
       </c>
-      <c r="AD3" s="28">
-        <v>3386000000</v>
-      </c>
-      <c r="AE3" s="28">
+      <c r="AD3" s="24">
+        <v>3416000000</v>
+      </c>
+      <c r="AE3" s="24">
         <v>3872000000</v>
       </c>
-      <c r="AF3" s="28">
+      <c r="AF3" s="24">
         <v>4443000000</v>
       </c>
       <c r="AG3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AI3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3472,11 +3525,11 @@
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>0.17938000696621392</v>
+        <v>0.18982932776036221</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>0.14353219137625506</v>
+        <v>0.13348946135831374</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
@@ -3495,7 +3548,7 @@
         <v>9.0679569648209377E-2</v>
       </c>
       <c r="AJ4" s="17">
-        <f>(AA105+Z105+Y105)/3</f>
+        <f>(AA106+Z106+Y106)/3</f>
         <v>8.6840931013309666E-3</v>
       </c>
     </row>
@@ -3665,16 +3718,16 @@
         <v>1768391000</v>
       </c>
       <c r="AG6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="19" t="s">
+      <c r="AJ6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AI6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -3772,7 +3825,7 @@
         <v>0.16930000000000001</v>
       </c>
       <c r="AJ7" s="20">
-        <f>AA106/AA3</f>
+        <f>AA107/AA3</f>
         <v>0.1924698462563445</v>
       </c>
     </row>
@@ -3861,7 +3914,7 @@
     </row>
     <row r="9" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3968,16 +4021,16 @@
         <v>0.1012294268829852</v>
       </c>
       <c r="AG9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AH9" s="19" t="s">
+      <c r="AI9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4084,37 +4137,37 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1">
         <v>41705000</v>
@@ -4245,21 +4298,21 @@
         <v>1022959000</v>
       </c>
       <c r="AG12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AH12" s="19" t="s">
+      <c r="AJ12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4432,16 +4485,16 @@
         <v>2237000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U14" s="1">
         <v>22731000</v>
@@ -4548,16 +4601,16 @@
         <v>1317442000</v>
       </c>
       <c r="AG15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AH15" s="19" t="s">
+      <c r="AJ15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AI15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -4642,71 +4695,71 @@
       <c r="AA16" s="1">
         <v>1731450000</v>
       </c>
-      <c r="AG16" s="29">
+      <c r="AG16" s="25">
         <f>(AA35+Z35+Y35+X35+W35)/5</f>
         <v>3.4988292617894601E-2</v>
       </c>
-      <c r="AH16" s="30">
+      <c r="AH16" s="26">
         <f>AI101/AA3</f>
-        <v>14.694989321384403</v>
-      </c>
-      <c r="AI16" s="30">
+        <v>16.244980867384928</v>
+      </c>
+      <c r="AI16" s="26">
         <f>AI101/AA28</f>
-        <v>86.804898051984964</v>
-      </c>
-      <c r="AJ16" s="31">
-        <f>AI101/AA106</f>
-        <v>76.34956647605263</v>
+        <v>95.960866470159942</v>
+      </c>
+      <c r="AJ16" s="27">
+        <f>AI101/AA107</f>
+        <v>84.40273208172438</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1">
         <v>4832000</v>
@@ -4733,7 +4786,7 @@
         <v>2615000</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z17" s="1">
         <v>31621000</v>
@@ -4742,7 +4795,7 @@
         <v>32125000</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4825,10 +4878,19 @@
         <v>137885000</v>
       </c>
       <c r="AG18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4910,14 +4972,41 @@
       <c r="AA19" s="10">
         <v>656467000</v>
       </c>
-      <c r="AG19" s="32">
+      <c r="AB19" s="65">
+        <v>517900000</v>
+      </c>
+      <c r="AC19" s="65">
+        <v>705400000</v>
+      </c>
+      <c r="AD19" s="65">
+        <v>971000000</v>
+      </c>
+      <c r="AE19" s="65">
+        <v>1210000000</v>
+      </c>
+      <c r="AF19" s="65">
+        <v>1509000000</v>
+      </c>
+      <c r="AG19" s="28">
         <f>AA40-AA56-AA61</f>
         <v>3862390000</v>
       </c>
+      <c r="AH19" s="61">
+        <f>AI101/AB3</f>
+        <v>14.307114608555286</v>
+      </c>
+      <c r="AI19" s="61">
+        <f>AI101/AB28</f>
+        <v>70.483161033797217</v>
+      </c>
+      <c r="AJ19" s="62">
+        <f>AI101/AB106</f>
+        <v>86.197495745198154</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -5020,8 +5109,28 @@
         <f t="shared" si="3"/>
         <v>0.14138994031091179</v>
       </c>
+      <c r="AB20" s="16">
+        <f t="shared" ref="AB20" si="4">(AB19/AA19)-1</f>
+        <v>-0.21107991719309582</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" ref="AC20" si="5">(AC19/AB19)-1</f>
+        <v>0.36203900366866182</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" ref="AD20" si="6">(AD19/AC19)-1</f>
+        <v>0.37652395803799266</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" ref="AE20" si="7">(AE19/AD19)-1</f>
+        <v>0.24613800205973213</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" ref="AF20" si="8">(AF19/AE19)-1</f>
+        <v>0.24710743801652901</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5103,8 +5212,34 @@
       <c r="AA21" s="2">
         <v>0.30080000000000001</v>
       </c>
+      <c r="AB21" s="66">
+        <f>AB19/AB3</f>
+        <v>0.20899919289749799</v>
+      </c>
+      <c r="AC21" s="66">
+        <f t="shared" ref="AC21:AF21" si="9">AC19/AC3</f>
+        <v>0.24569836293974226</v>
+      </c>
+      <c r="AD21" s="66">
+        <f t="shared" si="9"/>
+        <v>0.28425058548009369</v>
+      </c>
+      <c r="AE21" s="66">
+        <f t="shared" si="9"/>
+        <v>0.3125</v>
+      </c>
+      <c r="AF21" s="66">
+        <f t="shared" si="9"/>
+        <v>0.33963538149898714</v>
+      </c>
+      <c r="AI21" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="AJ21" s="19" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5186,8 +5321,16 @@
       <c r="AA22" s="10">
         <v>450949000</v>
       </c>
+      <c r="AI22" s="63">
+        <f>(-1*AA98)/AI101</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="64">
+        <f>AA107/AI101</f>
+        <v>1.1847957706294779E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5210,7 +5353,7 @@
         <v>-6.9800000000000001E-2</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I23" s="2">
         <v>6.0199999999999997E-2</v>
@@ -5270,7 +5413,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5281,7 +5424,7 @@
         <v>500000</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="1">
         <v>-2477232</v>
@@ -5353,18 +5496,18 @@
         <v>35508000</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10">
         <v>-51699963</v>
@@ -5436,18 +5579,18 @@
         <v>486457000</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="2">
         <v>-0.88370000000000004</v>
@@ -5519,18 +5662,18 @@
         <v>0.22289999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" s="1">
         <v>-2045014</v>
@@ -5539,7 +5682,7 @@
         <v>-987262</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H27" s="1">
         <v>282000</v>
@@ -5602,7 +5745,7 @@
         <v>117004000</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5684,10 +5827,25 @@
       <c r="AA28" s="11">
         <v>369453000</v>
       </c>
+      <c r="AB28" s="67">
+        <v>503000000</v>
+      </c>
+      <c r="AC28" s="67">
+        <v>605300000</v>
+      </c>
+      <c r="AD28" s="67">
+        <v>754300000</v>
+      </c>
+      <c r="AE28" s="67">
+        <v>902000000</v>
+      </c>
+      <c r="AF28" s="67">
+        <v>1090000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5703,95 +5861,115 @@
         <v>3.0369877235772353</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AA29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AA29" si="10">(F28/E28)-1</f>
         <v>-0.59397140856996955</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.76271405520935653</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.0209030100334449</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>248.85</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.74156493896337805</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.9219451757782251</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.28533440773569696</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.54366497398282232</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.2408317426796085</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.28909217354089767</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.1028670328843404</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.32348526200873362</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.9988905698436712</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.50901325082397264</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.0772248100024515</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-25.551515151515151</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.44226587203629908</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.94249154407270064</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.32151938036536953</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-0.27887402647295079</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.2881018632665282</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>0.2628108721510507</v>
       </c>
+      <c r="AB29" s="16">
+        <f t="shared" ref="AB29" si="11">(AB28/AA28)-1</f>
+        <v>0.36147223056789368</v>
+      </c>
+      <c r="AC29" s="16">
+        <f t="shared" ref="AC29" si="12">(AC28/AB28)-1</f>
+        <v>0.2033797216699802</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" ref="AD29" si="13">(AD28/AC28)-1</f>
+        <v>0.24615892945646789</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" ref="AE29" si="14">(AE28/AD28)-1</f>
+        <v>0.19581068540368562</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" ref="AF29" si="15">(AF28/AE28)-1</f>
+        <v>0.20842572062084264</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5873,8 +6051,28 @@
       <c r="AA30" s="2">
         <v>0.16930000000000001</v>
       </c>
+      <c r="AB30" s="68">
+        <f>AB28/AB3</f>
+        <v>0.20298627925746571</v>
+      </c>
+      <c r="AC30" s="68">
+        <f t="shared" ref="AC30:AF30" si="16">AC28/AC3</f>
+        <v>0.21083246255660049</v>
+      </c>
+      <c r="AD30" s="68">
+        <f t="shared" si="16"/>
+        <v>0.22081381733021077</v>
+      </c>
+      <c r="AE30" s="68">
+        <f t="shared" si="16"/>
+        <v>0.23295454545454544</v>
+      </c>
+      <c r="AF30" s="68">
+        <f t="shared" si="16"/>
+        <v>0.24532973216295295</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5897,7 +6095,7 @@
         <v>-0.03</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="12">
         <v>0.14000000000000001</v>
@@ -5956,8 +6154,23 @@
       <c r="AA31" s="12">
         <v>0.93</v>
       </c>
+      <c r="AB31" s="69">
+        <v>1.23</v>
+      </c>
+      <c r="AC31" s="69">
+        <v>1.48</v>
+      </c>
+      <c r="AD31" s="69">
+        <v>1.85</v>
+      </c>
+      <c r="AE31" s="69">
+        <v>2.21</v>
+      </c>
+      <c r="AF31" s="69">
+        <v>2.67</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5980,7 +6193,7 @@
         <v>-0.03</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I32" s="12">
         <v>0.13</v>
@@ -6208,7 +6421,7 @@
     </row>
     <row r="35" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6216,99 +6429,99 @@
         <v>0.24588820569303216</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AA35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AA35" si="17">(D34-C34)/C34</f>
         <v>0.62574918165538318</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.29082514958100775</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.296266044155715E-2</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.8709096375521228E-3</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>5.8062059775366458E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.12912318579824877</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9.560737239071547E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.3127268900931237E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.2470649621706235E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>7.5242218099360958E-3</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.9181585677749361E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.9247176913425344E-2</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.13618583087844691</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>0.14544990861563309</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.6866303016809531E-2</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.6098114277612367E-2</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.2720537841454263E-2</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>1.5211267605633802E-2</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3.4622024910593172E-2</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.6087189725557969E-2</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.9934152765583849E-3</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4.6300846300846299E-2</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>2.8792464645410427E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>8.7675471410999378E-3</v>
       </c>
     </row>
@@ -6317,82 +6530,82 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -6400,82 +6613,82 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6566,16 +6779,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>11256115</v>
@@ -6614,34 +6827,34 @@
         <v>37000</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6815,82 +7028,82 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -6898,7 +7111,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>300000</v>
@@ -7147,31 +7360,31 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1">
         <v>46497000</v>
@@ -7230,10 +7443,10 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1">
         <v>31200000</v>
@@ -7313,10 +7526,10 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1">
         <v>31200000</v>
@@ -7396,37 +7609,37 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1">
         <v>29340000</v>
@@ -7465,13 +7678,13 @@
         <v>10070000</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -7479,25 +7692,25 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1">
         <v>21487000</v>
@@ -7518,19 +7731,19 @@
         <v>1978000</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P50" s="1">
         <v>10224000</v>
       </c>
       <c r="Q50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T50" s="1">
         <v>9107000</v>
@@ -7728,82 +7941,82 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -7980,46 +8193,46 @@
         <v>1700000</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q56" s="1">
         <v>17500000</v>
@@ -8037,10 +8250,10 @@
         <v>31866000</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X56" s="1">
         <v>29670000</v>
@@ -8060,61 +8273,61 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1">
         <v>1907000</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1">
         <v>978000</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1">
         <v>2362000</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1">
         <v>3814000</v>
@@ -8143,16 +8356,16 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1">
         <v>4532285</v>
@@ -8392,49 +8605,49 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1">
         <v>153125000</v>
@@ -8452,13 +8665,13 @@
         <v>306473000</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y61" s="1">
         <v>1110938000</v>
@@ -8475,46 +8688,46 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1">
         <v>47925000</v>
@@ -8541,16 +8754,16 @@
         <v>45613000</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8558,10 +8771,10 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1">
         <v>7000000</v>
@@ -8570,13 +8783,13 @@
         <v>987262</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1">
         <v>2539000</v>
@@ -8594,13 +8807,13 @@
         <v>132000</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1">
         <v>1450000</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1">
         <v>34071000</v>
@@ -8641,37 +8854,37 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M64" s="1">
         <v>1695000</v>
@@ -8724,10 +8937,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1">
         <v>7000000</v>
@@ -8736,13 +8949,13 @@
         <v>987262</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I65" s="1">
         <v>2539000</v>
@@ -8807,82 +9020,82 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -8973,10 +9186,10 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1">
         <v>100000</v>
@@ -9056,7 +9269,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-14600000</v>
@@ -9471,82 +9684,82 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:27" ht="21" x14ac:dyDescent="0.25">
@@ -9554,82 +9767,82 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:27" ht="19" x14ac:dyDescent="0.25">
@@ -9803,34 +10016,34 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1">
         <v>-2045014</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1">
         <v>9946000</v>
@@ -9886,37 +10099,37 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1">
         <v>4940000</v>
@@ -9966,110 +10179,110 @@
     </row>
     <row r="80" spans="1:27" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AA80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AA80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2.3254938143747527E-2</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.0811937479430885E-2</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.6709979669406874E-2</v>
       </c>
       <c r="P80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.2188227442817532E-2</v>
       </c>
       <c r="Q80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.5097846463353302E-2</v>
       </c>
       <c r="R80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.4227598578501076E-2</v>
       </c>
       <c r="S80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.9080106122902548E-2</v>
       </c>
       <c r="T80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.8523105973328241E-2</v>
       </c>
       <c r="U80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.3395055095925408E-2</v>
       </c>
       <c r="V80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.0435958269013604E-2</v>
       </c>
       <c r="W80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.4580377100128207E-2</v>
       </c>
       <c r="X80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.7332493164699485E-2</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.2217834756563972E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.2769843657976423E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>3.4460701274148312E-2</v>
       </c>
     </row>
@@ -10161,37 +10374,37 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1">
         <v>-6196000</v>
@@ -10244,127 +10457,127 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AI83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="AH83" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI83" s="34"/>
     </row>
     <row r="84" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1">
         <v>2655000</v>
@@ -10408,10 +10621,10 @@
       <c r="AA84" s="1">
         <v>23234000</v>
       </c>
-      <c r="AH84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI84" s="65"/>
+      <c r="AH84" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI84" s="35"/>
     </row>
     <row r="85" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10495,10 +10708,10 @@
       <c r="AA85" s="1">
         <v>-110011000</v>
       </c>
-      <c r="AH85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI85" s="24">
+      <c r="AH85" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI85" s="37">
         <f>AA17</f>
         <v>32125000</v>
       </c>
@@ -10585,10 +10798,10 @@
       <c r="AA86" s="1">
         <v>132806000</v>
       </c>
-      <c r="AH86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI86" s="24">
+      <c r="AH86" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI86" s="37">
         <f>AA56</f>
         <v>36049000</v>
       </c>
@@ -10675,10 +10888,10 @@
       <c r="AA87" s="10">
         <v>478620000</v>
       </c>
-      <c r="AH87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI87" s="24">
+      <c r="AH87" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI87" s="37">
         <f>AA61</f>
         <v>1069531000</v>
       </c>
@@ -10765,126 +10978,126 @@
       <c r="AA88" s="1">
         <v>-58574000</v>
       </c>
-      <c r="AH88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI88" s="34">
+      <c r="AH88" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI88" s="39">
         <f>AI85/(AI86+AI87)</f>
         <v>2.9057146475153312E-2</v>
       </c>
     </row>
     <row r="89" spans="1:35" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:AA89" si="19">(-1*B88)/B3</f>
+        <v>0.13924050632911392</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="19"/>
+        <v>9.3525179856115109E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.47019867549668876</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.19646355112658645</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.8937644132871601E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.0602925796655873E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.0797013826822985E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.0581701387339971E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="19"/>
+        <v>6.2476737780821509E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="19"/>
+        <v>8.1560082825116911E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="19"/>
+        <v>7.4017789995072747E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="19"/>
+        <v>1.7210537217315986E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.0291187118129917E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="19"/>
+        <v>0.25350481746663128</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="19"/>
+        <v>5.9637400789709936E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.2390608568423943E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.3184720020501513E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.7651127903100346E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="19"/>
+        <v>4.9259305050550463E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.2403686591931999E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.5381515286512023E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.4862564522516596E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="19"/>
+        <v>3.300448161380963E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.9141920616942905E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="19"/>
+        <v>3.3547053059586912E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="19"/>
+        <v>2.683927182884523E-2</v>
+      </c>
+      <c r="AH89" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:AA89" si="7">(-1*B88)/B3</f>
-        <v>0.13924050632911392</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.3525179856115109E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.47019867549668876</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.19646355112658645</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8937644132871601E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.0602925796655873E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.0797013826822985E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.0581701387339971E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.2476737780821509E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.1560082825116911E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>7.4017789995072747E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>1.7210537217315986E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.0291187118129917E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.25350481746663128</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.9637400789709936E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.2390608568423943E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.3184720020501513E-2</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.7651127903100346E-2</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.9259305050550463E-2</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.2403686591931999E-2</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.5381515286512023E-2</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.4862564522516596E-2</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.300448161380963E-2</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.9141920616942905E-2</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.3547053059586912E-2</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.683927182884523E-2</v>
-      </c>
-      <c r="AH89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI89" s="24">
+      <c r="AI89" s="37">
         <f>AA27</f>
         <v>117004000</v>
       </c>
@@ -10894,19 +11107,19 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1">
         <v>-3071000</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1">
         <v>-305000</v>
@@ -10933,7 +11146,7 @@
         <v>-3207000</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P90" s="1">
         <v>-15085000</v>
@@ -10942,7 +11155,7 @@
         <v>-640929000</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1">
         <v>-584218000</v>
@@ -10971,10 +11184,10 @@
       <c r="AA90" s="1">
         <v>-6273000</v>
       </c>
-      <c r="AH90" s="23" t="s">
+      <c r="AH90" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="AI90" s="24">
+      <c r="AI90" s="37">
         <f>AA25</f>
         <v>486457000</v>
       </c>
@@ -10984,22 +11197,22 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-8080068</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1">
         <v>-60231000</v>
@@ -11020,51 +11233,51 @@
         <v>-4839000</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI91" s="34">
+        <v>91</v>
+      </c>
+      <c r="AH91" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI91" s="39">
         <f>AI89/AI90</f>
         <v>0.2405228005764127</v>
       </c>
@@ -11074,25 +11287,25 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1">
         <v>9658000</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1">
         <v>71944000</v>
@@ -11134,27 +11347,27 @@
         <v>5950000</v>
       </c>
       <c r="V92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y92" s="1">
         <v>10259000</v>
       </c>
       <c r="Z92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA92" s="1">
         <v>864000</v>
       </c>
-      <c r="AH92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI92" s="36">
+      <c r="AH92" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI92" s="39">
         <f>AI88*(1-AI91)</f>
         <v>2.2068240228190397E-2</v>
       </c>
@@ -11185,55 +11398,55 @@
         <v>16009000</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P93" s="1">
         <v>83553000</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z93" s="1">
         <v>-123152000</v>
@@ -11241,10 +11454,10 @@
       <c r="AA93" s="1">
         <v>-5072000</v>
       </c>
-      <c r="AH93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI93" s="65"/>
+      <c r="AH93" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI93" s="35"/>
     </row>
     <row r="94" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11328,11 +11541,12 @@
       <c r="AA94" s="10">
         <v>-69055000</v>
       </c>
-      <c r="AH94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI94" s="37">
-        <v>4.095E-2</v>
+      <c r="AH94" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI94" s="60">
+        <f>[1]Treasuries!$C$8</f>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11340,49 +11554,49 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1">
         <v>-4375000</v>
@@ -11403,26 +11617,26 @@
         <v>-345000000</v>
       </c>
       <c r="W95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y95" s="1">
         <v>-745000000</v>
       </c>
       <c r="Z95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA95" s="1">
         <v>-2155000</v>
       </c>
-      <c r="AH95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI95" s="39" cm="1">
+      <c r="AH95" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI95" s="42" cm="1">
         <f t="array" ref="AI95">_FV(A1,"Beta")</f>
-        <v>0.8831</v>
+        <v>0.90980000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11430,7 +11644,7 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1">
         <v>22800000</v>
@@ -11466,51 +11680,51 @@
         <v>6158000</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P96" s="1">
         <v>247924000</v>
       </c>
       <c r="Q96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S96" s="1">
         <v>529360000</v>
       </c>
       <c r="T96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V96" s="1">
         <v>833911000</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1">
         <v>1689971000</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1">
         <v>745700000</v>
       </c>
-      <c r="AH96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AI96" s="37">
+      <c r="AH96" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI96" s="40">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11519,40 +11733,40 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N97" s="1">
         <v>-672000</v>
@@ -11594,14 +11808,14 @@
         <v>-33314000</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AI97" s="36">
+        <v>91</v>
+      </c>
+      <c r="AH97" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI97" s="39">
         <f>(AI94)+((AI95)*(AI96-AI94))</f>
-        <v>7.8967455000000006E-2</v>
+        <v>8.0074496000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:35" ht="19" x14ac:dyDescent="0.25">
@@ -11609,87 +11823,87 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI98" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI98" s="35"/>
     </row>
     <row r="99" spans="1:35" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -11702,31 +11916,31 @@
         <v>-1600000</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E99" s="1">
         <v>-4531000</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M99" s="1">
         <v>5317000</v>
@@ -11773,10 +11987,10 @@
       <c r="AA99" s="1">
         <v>-9568000</v>
       </c>
-      <c r="AH99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI99" s="24">
+      <c r="AH99" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI99" s="37">
         <f>AI86+AI87</f>
         <v>1105580000</v>
       </c>
@@ -11863,12 +12077,12 @@
       <c r="AA100" s="10">
         <v>733977000</v>
       </c>
-      <c r="AH100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI100" s="34">
+      <c r="AH100" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI100" s="39">
         <f>AI99/AI103</f>
-        <v>3.3324782952449533E-2</v>
+        <v>3.0241302937939928E-2</v>
       </c>
     </row>
     <row r="101" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11876,22 +12090,22 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1">
         <v>309000</v>
@@ -11953,12 +12167,12 @@
       <c r="AA101" s="1">
         <v>-2698000</v>
       </c>
-      <c r="AH101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI101" s="40" cm="1">
+      <c r="AH101" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI101" s="43" cm="1">
         <f t="array" ref="AI101">_FV(A1,"Market cap",TRUE)</f>
-        <v>32070330000</v>
+        <v>35453030000</v>
       </c>
     </row>
     <row r="102" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -11966,10 +12180,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>74400000</v>
@@ -12043,12 +12257,12 @@
       <c r="AA102" s="10">
         <v>1140844000</v>
       </c>
-      <c r="AH102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI102" s="34">
+      <c r="AH102" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI102" s="39">
         <f>AI101/AI103</f>
-        <v>0.96667521704755044</v>
+        <v>0.96975869706206008</v>
       </c>
     </row>
     <row r="103" spans="1:35" ht="20" x14ac:dyDescent="0.25">
@@ -12133,12 +12347,12 @@
       <c r="AA103" s="1">
         <v>3827126000</v>
       </c>
-      <c r="AH103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI103" s="41">
+      <c r="AH103" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI103" s="44">
         <f>AI99+AI101</f>
-        <v>33175910000</v>
+        <v>36558610000</v>
       </c>
     </row>
     <row r="104" spans="1:35" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12146,10 +12360,10 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>94100000</v>
@@ -12223,366 +12437,458 @@
       <c r="AA104" s="11">
         <v>4967970000</v>
       </c>
-      <c r="AH104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI104" s="65"/>
+      <c r="AH104" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI104" s="35"/>
     </row>
     <row r="105" spans="1:35" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.51515151515151514</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>12.5625</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.7668126728110598</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-0.82665376624599451</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-1.2344243948224407</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AA105" si="8">(H106/G106)-1</f>
-        <v>5.2066752246469834</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.62264736297828338</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.4246383277037808E-2</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.36252237367479001</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.89611964430072755</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.3545086335535803E-3</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.22084720283474712</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.6232213608957795</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.5899718060699874</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>5.6802848575712144</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.25197778151826289</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.30484225150129962</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.17413815309320402</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.8420735257423273</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.18640011739606499</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.45490095335959357</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.34580774688875371</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>6.3598350757927413E-2</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>-7.595046589561838E-2</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.8404394441683865E-2</v>
-      </c>
-      <c r="AB105" s="15"/>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI105" s="26">
+        <v>164</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:Z105" si="20">(B22*(1-$AI$91))+B77+B88+B81</f>
+        <v>-2906274.7580978381</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="20"/>
+        <v>-1358170.1979825553</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="20"/>
+        <v>-21395948.871123243</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>-32328223.887860589</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>-5232621.3217098303</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>-95782.116404944099</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>7493518.9543988463</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="20"/>
+        <v>12480433.187311519</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="20"/>
+        <v>8042081.5981679782</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="20"/>
+        <v>4450198.4450835325</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="20"/>
+        <v>17285186.964109879</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="20"/>
+        <v>37034078.810665689</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="20"/>
+        <v>26105956.643649906</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="20"/>
+        <v>-25304906.7831278</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="20"/>
+        <v>23146578.108650919</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="20"/>
+        <v>52923054.352183238</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="20"/>
+        <v>85991728.257584944</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="20"/>
+        <v>123588996.9349809</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="20"/>
+        <v>74359811.319397196</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="20"/>
+        <v>144234043.58247492</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="20"/>
+        <v>171481288.89501023</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="20"/>
+        <v>174573620.58311427</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="20"/>
+        <v>224122657.41884691</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="20"/>
+        <v>274353325.0277003</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="20"/>
+        <v>247946093.96719545</v>
+      </c>
+      <c r="AA105" s="1">
+        <f>(AA22*(1-$AI$91))+AA77+AA88+AA81</f>
+        <v>216268483.60286725</v>
+      </c>
+      <c r="AB105" s="29">
+        <f>AA105*(1+$AI$106)</f>
+        <v>249350259.21871546</v>
+      </c>
+      <c r="AC105" s="29">
+        <f t="shared" ref="AC105:AF105" si="21">AB105*(1+$AI$106)</f>
+        <v>287492429.48692077</v>
+      </c>
+      <c r="AD105" s="29">
+        <f t="shared" si="21"/>
+        <v>331469063.92342949</v>
+      </c>
+      <c r="AE105" s="29">
+        <f t="shared" si="21"/>
+        <v>382172638.54341984</v>
+      </c>
+      <c r="AF105" s="29">
+        <f t="shared" si="21"/>
+        <v>440632148.05765063</v>
+      </c>
+      <c r="AG105" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH105" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI105" s="46">
         <f>(AI100*AI92)+(AI102*AI97)</f>
-        <v>7.7071301017564639E-2</v>
+        <v>7.832031124690908E-2</v>
       </c>
     </row>
     <row r="106" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-3300000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-1600000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-21700000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>-38339835</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-6646066</v>
-      </c>
-      <c r="G106" s="1">
-        <v>1558000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>9670000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>15691000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>14526000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>19792000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>37528000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>37252000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>29025000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>-18089000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>10672000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>71292000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>89256000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>116465000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>96184000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>177178000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>210204000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>305826000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>411583000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>437759000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>404511000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>420046000</v>
-      </c>
-      <c r="AB106" s="42">
-        <f>AA106*(1+$AI$106)</f>
-        <v>484264697.64493567</v>
-      </c>
-      <c r="AC106" s="42">
-        <f t="shared" ref="AC106:AF106" si="9">AB106*(1+$AI$106)</f>
-        <v>558301465.51839793</v>
-      </c>
-      <c r="AD106" s="42">
-        <f t="shared" si="9"/>
-        <v>643657338.46767128</v>
-      </c>
-      <c r="AE106" s="42">
-        <f t="shared" si="9"/>
-        <v>742062836.92736232</v>
-      </c>
-      <c r="AF106" s="42">
-        <f t="shared" si="9"/>
-        <v>855513051.80426025</v>
-      </c>
-      <c r="AG106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-0.51515151515151514</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>12.5625</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.7668126728110598</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>-0.82665376624599451</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>-1.2344243948224407</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>5.2066752246469834</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>0.62264736297828338</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>-7.4246383277037808E-2</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>0.36252237367479001</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>0.89611964430072755</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>-7.3545086335535803E-3</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>-0.22084720283474712</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>-1.6232213608957795</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-1.5899718060699874</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>5.6802848575712144</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>0.25197778151826289</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>0.30484225150129962</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>-0.17413815309320402</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>0.8420735257423273</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>0.18640011739606499</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>0.45490095335959357</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>0.34580774688875371</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>6.3598350757927413E-2</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>-7.595046589561838E-2</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>3.8404394441683865E-2</v>
+      </c>
+      <c r="AB106" s="32">
+        <v>411300000</v>
+      </c>
+      <c r="AC106" s="32">
+        <v>556000000</v>
+      </c>
+      <c r="AD106" s="32">
+        <v>780400000</v>
+      </c>
+      <c r="AE106" s="32">
+        <v>945300000</v>
+      </c>
+      <c r="AF106" s="32">
+        <v>1190000000</v>
+      </c>
+      <c r="AG106" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH106" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI106" s="48">
         <f>(SUM(AB4:AF4)/5)</f>
-        <v>0.15288491652089445</v>
+        <v>0.15296623467613585</v>
       </c>
     </row>
     <row r="107" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="43"/>
-      <c r="AC107" s="43"/>
-      <c r="AD107" s="43"/>
-      <c r="AE107" s="43"/>
-      <c r="AF107" s="46">
+      <c r="A107" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-3300000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-1600000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-21700000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>-38339835</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-6646066</v>
+      </c>
+      <c r="G107" s="1">
+        <v>1558000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>9670000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>15691000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>14526000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>19792000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>37528000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>37252000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>29025000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>-18089000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>10672000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>71292000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>89256000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>116465000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>96184000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>177178000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>210204000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>305826000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>411583000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>437759000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>404511000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>420046000</v>
+      </c>
+      <c r="AB107" s="30"/>
+      <c r="AC107" s="30"/>
+      <c r="AD107" s="30"/>
+      <c r="AE107" s="30"/>
+      <c r="AF107" s="59">
         <f>AF106*(1+AI107)/(AI108-AI107)</f>
-        <v>16840387333.582684</v>
-      </c>
-      <c r="AG107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI107" s="49">
+        <v>22875897973.508316</v>
+      </c>
+      <c r="AG107" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH107" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI107" s="50">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB108" s="46">
-        <f t="shared" ref="AB108:AD108" si="10">AB107+AB106</f>
-        <v>484264697.64493567</v>
-      </c>
-      <c r="AC108" s="46">
-        <f t="shared" si="10"/>
-        <v>558301465.51839793</v>
-      </c>
-      <c r="AD108" s="46">
-        <f t="shared" si="10"/>
-        <v>643657338.46767128</v>
-      </c>
-      <c r="AE108" s="46">
+      <c r="AB108" s="59">
+        <f t="shared" ref="AB108:AD108" si="22">AB107+AB106</f>
+        <v>411300000</v>
+      </c>
+      <c r="AC108" s="59">
+        <f t="shared" si="22"/>
+        <v>556000000</v>
+      </c>
+      <c r="AD108" s="59">
+        <f t="shared" si="22"/>
+        <v>780400000</v>
+      </c>
+      <c r="AE108" s="59">
         <f>AE107+AE106</f>
-        <v>742062836.92736232</v>
-      </c>
-      <c r="AF108" s="46">
+        <v>945300000</v>
+      </c>
+      <c r="AF108" s="59">
         <f>AF107+AF106</f>
-        <v>17695900385.386944</v>
-      </c>
-      <c r="AG108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI108" s="51">
+        <v>24065897973.508316</v>
+      </c>
+      <c r="AG108" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH108" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="AI108" s="48">
         <f>AI105</f>
-        <v>7.7071301017564639E-2</v>
+        <v>7.832031124690908E-2</v>
       </c>
     </row>
     <row r="109" spans="1:35" ht="19" x14ac:dyDescent="0.25">
-      <c r="AB109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC109" s="61"/>
+      <c r="AB109" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC109" s="52"/>
     </row>
     <row r="110" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC110" s="40">
+      <c r="AB110" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC110" s="43">
         <f>NPV(AI108,AB108,AC108,AD108,AE108,AF108)</f>
-        <v>14205568109.349615</v>
+        <v>18687972089.633602</v>
       </c>
     </row>
     <row r="111" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC111" s="40">
+      <c r="AB111" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC111" s="43">
         <f>AA40</f>
         <v>4967970000</v>
       </c>
     </row>
     <row r="112" spans="1:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC112" s="40">
+      <c r="AB112" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC112" s="43">
         <f>AI99</f>
         <v>1105580000</v>
       </c>
     </row>
     <row r="113" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC113" s="40">
+      <c r="AB113" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC113" s="43">
         <f>AC110+AC111-AC112</f>
-        <v>18067958109.349617</v>
+        <v>22550362089.633602</v>
       </c>
     </row>
     <row r="114" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB114" s="52" t="s">
-        <v>155</v>
+      <c r="AB114" s="53" t="s">
+        <v>152</v>
       </c>
       <c r="AC114" s="53">
         <f>AA34*(1+(5*AG16))</f>
@@ -12591,36 +12897,36 @@
     </row>
     <row r="115" spans="28:29" ht="20" x14ac:dyDescent="0.25">
       <c r="AB115" s="54" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AC115" s="55">
         <f>AC113/AC114</f>
-        <v>38.661657826402205</v>
+        <v>48.253066433651895</v>
       </c>
     </row>
     <row r="116" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB116" s="52" t="s">
-        <v>157</v>
+      <c r="AB116" s="53" t="s">
+        <v>154</v>
       </c>
       <c r="AC116" s="56" cm="1">
         <f t="array" ref="AC116">_FV(A1,"Price")</f>
-        <v>78.5</v>
+        <v>86.78</v>
       </c>
     </row>
     <row r="117" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC117" s="58">
+      <c r="AB117" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC117" s="57">
         <f>AC115/AC116-1</f>
-        <v>-0.50749480475920761</v>
+        <v>-0.44396097679589885</v>
       </c>
     </row>
     <row r="118" spans="28:29" ht="20" x14ac:dyDescent="0.25">
-      <c r="AB118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC118" s="59" t="str">
+      <c r="AB118" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC118" s="58" t="str">
         <f>IF(AC115&gt;AC116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -12688,9 +12994,10 @@
     <hyperlink ref="Z74" r:id="rId51" tooltip="https://www.sec.gov/Archives/edgar/data/1057352/000105735222000027/0001057352-22-000027-index.htm" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="AA36" r:id="rId52" tooltip="https://www.sec.gov/Archives/edgar/data/1057352/000105735223000030/0001057352-23-000030-index.htm" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="AA74" r:id="rId53" tooltip="https://www.sec.gov/Archives/edgar/data/1057352/000105735223000030/0001057352-23-000030-index.htm" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NASDAQGS:CSGP/models/dcf-revenue-exit-5yr/" xr:uid="{1B4EDC79-DAE9-6841-ABFF-B00D63439605}"/>
+    <hyperlink ref="AB1" r:id="rId54" display="https://finbox.com/NASDAQGS:CSGP/explorer/revenue_proj" xr:uid="{1B4EDC79-DAE9-6841-ABFF-B00D63439605}"/>
+    <hyperlink ref="AG106" r:id="rId55" xr:uid="{4E7A9B96-7725-4B42-9046-2B7882D6E970}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId55"/>
+  <drawing r:id="rId56"/>
 </worksheet>
 </file>